--- a/misc/Multicast_Mac_Address.xlsx
+++ b/misc/Multicast_Mac_Address.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
-  <si>
-    <t>Multicast-Gruppe (IP)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <t>E</t>
   </si>
@@ -28,9 +25,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>Multicast-Mac-Adresse</t>
   </si>
 </sst>
 </file>
@@ -526,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -535,11 +529,7 @@
     <col min="1" max="48" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15.75" thickBot="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="1" spans="1:48" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:48">
       <c r="Q2" s="1">
         <v>236</v>
@@ -586,19 +576,19 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="6"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="7"/>
@@ -610,7 +600,7 @@
       <c r="AG3" s="6"/>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="6"/>
       <c r="AK3" s="7"/>
@@ -622,7 +612,7 @@
       <c r="AO3" s="6"/>
       <c r="AP3" s="6"/>
       <c r="AQ3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3" s="6"/>
       <c r="AS3" s="7"/>
@@ -730,11 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="15.75" thickBot="1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="5" spans="1:48" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:48">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
@@ -769,7 +755,7 @@
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="16"/>
       <c r="Y6" s="15"/>
@@ -787,7 +773,7 @@
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
       <c r="AI6" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ6" s="15"/>
       <c r="AK6" s="16"/>
@@ -799,7 +785,7 @@
       <c r="AO6" s="15"/>
       <c r="AP6" s="15"/>
       <c r="AQ6" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6" s="15"/>
       <c r="AS6" s="16"/>
@@ -1002,7 +988,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="7"/>
@@ -1014,7 +1000,7 @@
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB10" s="6"/>
       <c r="AC10" s="7"/>
@@ -1026,7 +1012,7 @@
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="7"/>
@@ -1038,7 +1024,7 @@
       <c r="AO10" s="6"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR10" s="6"/>
       <c r="AS10" s="7"/>
@@ -1158,7 +1144,7 @@
     <mergeCell ref="AO9:AV9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
